--- a/pr-6.xlsx
+++ b/pr-6.xlsx
@@ -149,15 +149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -172,6 +163,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,360 +473,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <f>COLUMN()</f>
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <f>COLUMN()</f>
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <f>COLUMN()</f>
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <f>COLUMN()</f>
         <v>5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <f>COLUMN()</f>
         <v>6</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <f>COLUMN()</f>
         <v>7</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <f>COLUMN()</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8">
+      <c r="E4" s="2"/>
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>17</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <f>F4*G4</f>
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A15" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5">
         <v>175.89</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>5.3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H15" si="1">F5*G5</f>
         <v>932.21699999999987</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <f>ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5">
         <v>172</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>7.9</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>1358.8</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5">
         <v>150</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>7.12</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>1068</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="8">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5">
         <v>280</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>5.4</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>1512</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5">
         <v>46</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>14.9</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>685.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5">
         <v>65</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>11.6</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="8">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5">
         <v>78</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>12.4</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>967.2</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5">
         <v>75</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>18.8</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>1410</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5">
         <v>154.6</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>21.3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>3292.98</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5">
         <v>220</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>13.4</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>2948</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="5">
         <v>145</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>24.8</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>3596</v>
       </c>
@@ -835,19 +835,19 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="2">
         <f>SUM(H3:H15)</f>
         <v>18617.596999999998</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
